--- a/FichesTemps/JeanPhilippeBelval 3.xlsx
+++ b/FichesTemps/JeanPhilippeBelval 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\GitHub\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F66CEC-D659-4283-BC52-A3B160E80557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9134-2E0E-4F10-877D-D16778CE1F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2355" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="2985" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
   <si>
     <t>Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>Ajout au seed de certaines analyses reçues par la cliente.</t>
+  </si>
+  <si>
+    <t>Changement à la base de donnée pour permettre à la liaison en les types de résultats et les types d'analyses de se faire.</t>
+  </si>
+  <si>
+    <t>Ajout d'une requête dans le frontend pour aller chercher les différentes analyses disponibles.</t>
+  </si>
+  <si>
+    <t>Avancement de l'affichage frontend pour les checkbox d'analyses. Regroupement par catégorie et création de component indépendant pour gérer chaque analyse.</t>
+  </si>
+  <si>
+    <t>Ajout de la requête du frontend vers le backend pour la création de la requête avec ses analyses associées. Ajout d'un DTO et rafraichissement de la page lors du changement de patient.</t>
   </si>
 </sst>
 </file>
@@ -913,6 +925,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -925,15 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1670,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1775,7 @@
       </c>
       <c r="C9" s="19">
         <f>SUM(C11:C463)</f>
-        <v>14.25</v>
+        <v>24.65</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>7</v>
@@ -1913,22 +1925,40 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="29">
+        <v>44966</v>
+      </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="31">
+        <v>2.15</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="29">
+        <v>44966</v>
+      </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="29">
+        <v>44966</v>
+      </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
@@ -1937,10 +1967,16 @@
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="29">
+        <v>44969</v>
+      </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="31">
+        <v>3.25</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -4614,26 +4650,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -4660,15 +4696,15 @@
       <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4709,14 +4745,14 @@
       <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,36 +4769,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="55" t="str">
         <f>Temps!D6</f>
         <v>Jean-Philippe</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="52" t="str">
+      <c r="D13" s="55" t="str">
         <f>Temps!D7</f>
         <v>Belval</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4778,13 +4814,13 @@
         <f>VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="56">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
         <v>74</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4800,10 +4836,10 @@
         <f>VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4819,10 +4855,10 @@
         <f>VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4838,10 +4874,10 @@
         <f>VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,10 +4893,10 @@
         <f>VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4876,10 +4912,10 @@
         <f>VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4895,10 +4931,10 @@
         <f>VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4914,10 +4950,10 @@
         <f>VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4932,10 +4968,10 @@
       <c r="E22" s="45">
         <v>4</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4951,10 +4987,10 @@
         <f>VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4970,10 +5006,10 @@
         <f>VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,10 +5025,10 @@
         <f>VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5008,10 +5044,10 @@
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5027,10 +5063,10 @@
         <f>VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5046,10 +5082,10 @@
         <f>VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5064,14 +5100,14 @@
       <c r="C30" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,14 +5175,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F14:I28"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="F14:I28"/>
-    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E28">
     <cfRule type="colorScale" priority="2">
@@ -5212,26 +5248,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5267,14 +5303,14 @@
       <c r="C7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5758,26 +5794,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5813,14 +5849,14 @@
       <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6159,14 +6195,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6305,26 +6341,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6360,14 +6396,14 @@
       <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6708,14 +6744,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6854,26 +6890,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6909,14 +6945,14 @@
       <c r="C7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7256,14 +7292,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,26 +7438,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -7457,14 +7493,14 @@
       <c r="C7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7775,12 +7811,12 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">

--- a/FichesTemps/JeanPhilippeBelval 3.xlsx
+++ b/FichesTemps/JeanPhilippeBelval 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\GitHub\Rooftop\FichesTemps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9134-2E0E-4F10-877D-D16778CE1F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3F8AD9-224A-4C38-B38C-6771ECE17EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2985" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" r:id="rId1"/>
@@ -377,21 +377,6 @@
     <t>Souvent</t>
   </si>
   <si>
-    <t>Je crois avoir très bien travaillé cette semaine, j'ai pu organisé l'envoi du courriel au client avec les membres de mon équipe basé sur leur remarque. De plus, sur plusieurs tâches, j'ai pu complété avant le temps accordé.</t>
-  </si>
-  <si>
-    <t>Karl écoute très bien, mais ne participe pas toujours aux discussions d'équipe, il n'a pas vraiment d'opinion. Cependant, il travaille toujours au maximum de sa capacité, il persévère et effectue le travail qu'on lui demande.</t>
-  </si>
-  <si>
-    <t>Maxime a produit un travail de très bonne qualité cette semaine. Il n'emet pas toujours d'opinion et je crois que l'équipe gagnerait à l'entendre davantage.</t>
-  </si>
-  <si>
-    <t>Victor fait un travail de très bonne qualité, il est conscient de l'importance de notre projet. Cependant, il a tendance à ne pas assez écouter l'opinion des autres.</t>
-  </si>
-  <si>
-    <t>Louis ne s'est pas beaucoup impliqué dans les prises de décisions de l'équipe. Son travail était de bonne qualité, mais il ne dépassait pas les attentes et il ne prenait pas d'initiatives.</t>
-  </si>
-  <si>
     <t>Retour en classe avec Martin pour discuter du travail à distance et des rencontres clients.</t>
   </si>
   <si>
@@ -429,6 +414,21 @@
   </si>
   <si>
     <t>Ajout de la requête du frontend vers le backend pour la création de la requête avec ses analyses associées. Ajout d'un DTO et rafraichissement de la page lors du changement de patient.</t>
+  </si>
+  <si>
+    <t>L'application a très bien avancée cette semaine, nous nous sommes bien divisé les tâches et j'ai réalisé celles qui m'étaient assignées. En équipe, nous avons bien communiqué sur les avancements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl a très bien participé dans les discussions d'équipe, les tâches qu'il a effectué on été complété avec brio avec une bonne qualité. </t>
+  </si>
+  <si>
+    <t>Maxime a bien participé dans les discussions d'équipe et les tâches qu'il a complété on été très bien réalisé. Cependant, il n'a pas révisé le travail de ses coéquipiers.</t>
+  </si>
+  <si>
+    <t>Victor a très bien travaillé cette semaine, il était beaucoup plus respectueux dans ces interactions. Son ouverture à la critique pourrait encore être amélioré.</t>
+  </si>
+  <si>
+    <t>Louis a travaillé sur les tests pour le projet et ceux-ci ont été très bien réalisé. Cependant, Louis n'était pas toujours impliqué dans les décisions d'équipe.</t>
   </si>
 </sst>
 </file>
@@ -925,6 +925,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -939,13 +946,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1682,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1759,11 +1759,11 @@
       <c r="C8" s="50"/>
       <c r="D8" s="18" t="str">
         <f>_xlfn.CONCAT("Évaluateur = ",Évaluateur!F14," ",Évaluateur!D30,CHAR(10),'Coéquipier 1'!D9:I9," ",'Coéquipier 1'!D10:I10," = ",'Coéquipier 1'!F11:I25," ",'Coéquipier 1'!D27:I27,CHAR(10),'Coéquipier 2'!D9:I9," ",'Coéquipier 2'!D10:I10," = ",'Coéquipier 2'!F11:I25,CHAR(10),'Coéquipier 3'!D9:I9," ",'Coéquipier 3'!D10:I10," = ",'Coéquipier 3'!F11:I25,CHAR(10),'Coéquipier 4'!D9:I9," ",'Coéquipier 4'!D10:I10," = ",'Coéquipier 4'!F11:I25,CHAR(10),'Coéquipier 5'!D9:I9," ",'Coéquipier 5'!D10:I10," = ",'Coéquipier 5'!F11:I25)</f>
-        <v>Évaluateur = 74 Je crois avoir très bien travaillé cette semaine, j'ai pu organisé l'envoi du courriel au client avec les membres de mon équipe basé sur leur remarque. De plus, sur plusieurs tâches, j'ai pu complété avant le temps accordé.
-Karl Mainville = 72 Karl écoute très bien, mais ne participe pas toujours aux discussions d'équipe, il n'a pas vraiment d'opinion. Cependant, il travaille toujours au maximum de sa capacité, il persévère et effectue le travail qu'on lui demande.
-Maxime Aubin = 73
-Victor Turgeon = 72
-Louis Garceau = 71
+        <v>Évaluateur = 75 L'application a très bien avancée cette semaine, nous nous sommes bien divisé les tâches et j'ai réalisé celles qui m'étaient assignées. En équipe, nous avons bien communiqué sur les avancements.
+Karl Mainville = 74 Karl a très bien participé dans les discussions d'équipe, les tâches qu'il a effectué on été complété avec brio avec une bonne qualité. 
+Maxime Aubin = 74
+Victor Turgeon = 74
+Louis Garceau = 73
 Coéquipier 5 = à évaluer</v>
       </c>
       <c r="E8" s="9"/>
@@ -1807,7 +1807,7 @@
         <v>1.5</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>2.15</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>2.5</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>1.5</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>2.15</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>1.5</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>3.5</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>3.25</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:I30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,26 +4650,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -4696,15 +4696,15 @@
       <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4745,14 +4745,14 @@
       <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,36 +4769,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="55" t="str">
+      <c r="D12" s="57" t="str">
         <f>Temps!D6</f>
         <v>Jean-Philippe</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="55" t="str">
+      <c r="D13" s="57" t="str">
         <f>Temps!D7</f>
         <v>Belval</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4814,13 +4814,13 @@
         <f>VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="51">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>74</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4836,10 +4836,10 @@
         <f>VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4855,10 +4855,10 @@
         <f>VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4874,10 +4874,10 @@
         <f>VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4893,10 +4893,10 @@
         <f>VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4912,10 +4912,10 @@
         <f>VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4931,10 +4931,10 @@
         <f>VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4950,10 +4950,10 @@
         <f>VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4966,12 +4966,12 @@
         <v>24</v>
       </c>
       <c r="E22" s="45">
-        <v>4</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4987,10 +4987,10 @@
         <f>VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5006,10 +5006,10 @@
         <f>VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5025,10 +5025,10 @@
         <f>VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,10 +5044,10 @@
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,10 +5063,10 @@
         <f>VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5082,10 +5082,10 @@
         <f>VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5100,14 +5100,14 @@
       <c r="C30" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="D30" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5175,14 +5175,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="F14:I28"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E28">
     <cfRule type="colorScale" priority="2">
@@ -5222,7 +5222,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,26 +5248,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5303,14 +5303,14 @@
       <c r="C7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5437,10 +5437,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E15" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5455,10 +5455,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E16" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5568,11 +5568,11 @@
         <v>55</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E22" s="45">
         <f>VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5587,10 +5587,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E23" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5649,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -5794,26 +5794,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5849,14 +5849,14 @@
       <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5983,10 +5983,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E15" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6195,14 +6195,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="D27" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6341,26 +6341,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6396,14 +6396,14 @@
       <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6568,11 +6568,11 @@
         <v>50</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E17" s="45">
         <f>VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6744,14 +6744,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="D27" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6863,8 +6863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6890,26 +6890,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6945,14 +6945,14 @@
       <c r="C7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -7079,11 +7079,11 @@
         <v>48</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E15" s="45">
         <f>VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -7098,11 +7098,11 @@
         <v>49</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="45">
         <f>VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -7231,7 +7231,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E23" s="45">
         <v>4</v>
@@ -7292,14 +7292,14 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="D27" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -7438,26 +7438,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -7493,14 +7493,14 @@
       <c r="C7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7811,12 +7811,12 @@
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
